--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nlgn2-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nlgn2-Nrxn1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.211139333333333</v>
+        <v>4.682284333333333</v>
       </c>
       <c r="H2">
-        <v>9.633417999999999</v>
+        <v>14.046853</v>
       </c>
       <c r="I2">
-        <v>0.1329582930292673</v>
+        <v>0.1747450949072225</v>
       </c>
       <c r="J2">
-        <v>0.1329582930292673</v>
+        <v>0.1747450949072225</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.08668042478422221</v>
+        <v>0.1263920225325555</v>
       </c>
       <c r="R2">
-        <v>0.7801238230579999</v>
+        <v>1.137528202793</v>
       </c>
       <c r="S2">
-        <v>0.1329582930292673</v>
+        <v>0.1747450949072225</v>
       </c>
       <c r="T2">
-        <v>0.1329582930292673</v>
+        <v>0.1747450949072225</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>52.870115</v>
       </c>
       <c r="I3">
-        <v>0.7297015703731594</v>
+        <v>0.6577126751045782</v>
       </c>
       <c r="J3">
-        <v>0.7297015703731593</v>
+        <v>0.6577126751045781</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -638,10 +638,10 @@
         <v>4.281474782815</v>
       </c>
       <c r="S3">
-        <v>0.7297015703731594</v>
+        <v>0.6577126751045782</v>
       </c>
       <c r="T3">
-        <v>0.7297015703731593</v>
+        <v>0.6577126751045781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.033915</v>
+        <v>0.9374000000000001</v>
       </c>
       <c r="H4">
-        <v>0.101745</v>
+        <v>2.8122</v>
       </c>
       <c r="I4">
-        <v>0.00140426186471539</v>
+        <v>0.03498421716936109</v>
       </c>
       <c r="J4">
-        <v>0.00140426186471539</v>
+        <v>0.03498421716936108</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.000915490205</v>
+        <v>0.02530386313333334</v>
       </c>
       <c r="R4">
-        <v>0.008239411844999999</v>
+        <v>0.2277347682</v>
       </c>
       <c r="S4">
-        <v>0.00140426186471539</v>
+        <v>0.03498421716936109</v>
       </c>
       <c r="T4">
-        <v>0.00140426186471539</v>
+        <v>0.03498421716936108</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.167476666666667</v>
+        <v>3.238087</v>
       </c>
       <c r="H5">
-        <v>9.50243</v>
+        <v>9.714261</v>
       </c>
       <c r="I5">
-        <v>0.1311504257813894</v>
+        <v>0.1208469584182685</v>
       </c>
       <c r="J5">
-        <v>0.1311504257813894</v>
+        <v>0.1208469584182685</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.08550180931444445</v>
+        <v>0.08740784111566667</v>
       </c>
       <c r="R5">
-        <v>0.76951628383</v>
+        <v>0.7866705700410001</v>
       </c>
       <c r="S5">
-        <v>0.1311504257813894</v>
+        <v>0.1208469584182685</v>
       </c>
       <c r="T5">
-        <v>0.1311504257813894</v>
+        <v>0.1208469584182685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1155756666666667</v>
+        <v>0.313797</v>
       </c>
       <c r="H6">
-        <v>0.346727</v>
+        <v>0.941391</v>
       </c>
       <c r="I6">
-        <v>0.004785448951468603</v>
+        <v>0.01171105440056966</v>
       </c>
       <c r="J6">
-        <v>0.004785448951468602</v>
+        <v>0.01171105440056966</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.003119811020777778</v>
+        <v>0.008470531618999999</v>
       </c>
       <c r="R6">
-        <v>0.028078299187</v>
+        <v>0.076234784571</v>
       </c>
       <c r="S6">
-        <v>0.004785448951468603</v>
+        <v>0.01171105440056966</v>
       </c>
       <c r="T6">
-        <v>0.004785448951468602</v>
+        <v>0.01171105440056966</v>
       </c>
     </row>
   </sheetData>
